--- a/Running projects/Amreli Steel - 10th Floor Dolmen Sky Tower Clifton Karachi/BOQ/Revised Running Bill No 1 ACMV & Fire Works - Amreli steel.xlsx
+++ b/Running projects/Amreli Steel - 10th Floor Dolmen Sky Tower Clifton Karachi/BOQ/Revised Running Bill No 1 ACMV & Fire Works - Amreli steel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Pioneer\Projects 2023\Amreli Steel - 10th Floor Dolmen Sky Tower Clifton Karachi\BOQ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Amreli Steel - 10th Floor Dolmen Sky Tower Clifton Karachi\BOQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2165F301-9BFD-4D5B-AC72-1F4408EADAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5F1033-D28C-4F9B-9818-0E785BD27032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -830,10 +830,10 @@
     <t>IPC - 01</t>
   </si>
   <si>
-    <t>Variations (05 Nos)</t>
-  </si>
-  <si>
     <t>Supply,  installation,  testing  and  commissioning  of  of  chilled  water ducted  fan  coil  unit  &amp;  cooling  water  -  water  cooled  package  unit including  supply  and  installation  of  all  fixing  accessories,  lindaptor support,     hanger    steel     base,     vibration     isolators,     including interconnecting  power  &amp;  control  wiring  (terminal  connection)  with inlet &amp; outlet pipe connections, drain connection, flexible rubber duct connection / connector etc. complete in all respects ready to operate as  per  schedule,  specification,  drawings  and  as  per  instruction  of consultant.</t>
+  </si>
+  <si>
+    <t>Variations (04 Nos)</t>
   </si>
 </sst>
 </file>
@@ -2053,6 +2053,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2061,12 +2067,6 @@
     </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2108,9 +2108,9 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="22">
-          <cell r="C22">
-            <v>1774042.2881999998</v>
+        <row r="21">
+          <cell r="C21">
+            <v>1066596.6132</v>
           </cell>
         </row>
       </sheetData>
@@ -2409,7 +2409,7 @@
   <dimension ref="A2:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2551,15 +2551,15 @@
         <v>3</v>
       </c>
       <c r="B14" s="120" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C14" s="121"/>
       <c r="D14" s="57" t="s">
         <v>195</v>
       </c>
       <c r="E14" s="122">
-        <f>[1]Sheet1!$C$22</f>
-        <v>1774042.2881999998</v>
+        <f>[1]Sheet1!$C$21</f>
+        <v>1066596.6132</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2578,7 +2578,7 @@
       <c r="D16" s="61"/>
       <c r="E16" s="78">
         <f>SUM(E10:E14)</f>
-        <v>9616888.7882000003</v>
+        <v>8909443.1131999996</v>
       </c>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.2">
@@ -2804,7 +2804,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="36"/>
@@ -6135,16 +6135,16 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="186" t="s">
+      <c r="A5" s="183" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="186" t="s">
+      <c r="B5" s="183" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="186" t="s">
+      <c r="C5" s="183" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="186" t="s">
+      <c r="D5" s="183" t="s">
         <v>126</v>
       </c>
       <c r="E5" s="76" t="s">
@@ -6165,15 +6165,15 @@
       <c r="J5" s="178" t="s">
         <v>210</v>
       </c>
-      <c r="K5" s="186" t="s">
+      <c r="K5" s="183" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="187"/>
-      <c r="B6" s="187"/>
-      <c r="C6" s="187"/>
-      <c r="D6" s="187"/>
+      <c r="A6" s="184"/>
+      <c r="B6" s="184"/>
+      <c r="C6" s="184"/>
+      <c r="D6" s="184"/>
       <c r="E6" s="20" t="s">
         <v>127</v>
       </c>
@@ -6184,7 +6184,7 @@
       <c r="H6" s="178"/>
       <c r="I6" s="178"/>
       <c r="J6" s="178"/>
-      <c r="K6" s="187"/>
+      <c r="K6" s="184"/>
     </row>
     <row r="7" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
@@ -6479,27 +6479,27 @@
       <c r="D16" s="190">
         <v>46</v>
       </c>
-      <c r="E16" s="183">
+      <c r="E16" s="185">
         <v>3700</v>
       </c>
-      <c r="F16" s="183">
+      <c r="F16" s="185">
         <v>850</v>
       </c>
-      <c r="G16" s="183">
+      <c r="G16" s="185">
         <v>28</v>
       </c>
-      <c r="H16" s="183">
+      <c r="H16" s="185">
         <v>134400</v>
       </c>
-      <c r="I16" s="183">
+      <c r="I16" s="185">
         <f>G16</f>
         <v>28</v>
       </c>
-      <c r="J16" s="184">
+      <c r="J16" s="186">
         <f>I16*F16</f>
         <v>23800</v>
       </c>
-      <c r="K16" s="184">
+      <c r="K16" s="186">
         <f>J16+H16</f>
         <v>158200</v>
       </c>
@@ -6513,16 +6513,16 @@
       </c>
       <c r="C17" s="189"/>
       <c r="D17" s="190"/>
-      <c r="E17" s="183"/>
-      <c r="F17" s="183"/>
-      <c r="G17" s="183"/>
-      <c r="H17" s="183"/>
-      <c r="I17" s="183">
+      <c r="E17" s="185"/>
+      <c r="F17" s="185"/>
+      <c r="G17" s="185"/>
+      <c r="H17" s="185"/>
+      <c r="I17" s="185">
         <f>G17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="185"/>
-      <c r="K17" s="185"/>
+      <c r="J17" s="187"/>
+      <c r="K17" s="187"/>
       <c r="L17" s="1" t="s">
         <v>212</v>
       </c>
@@ -7481,6 +7481,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="K16:K17"/>
@@ -7497,12 +7503,6 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
